--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -248,46 +248,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1556,7 +1556,7 @@
         <v>91</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1564,7 +1564,7 @@
         <v>84</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>77</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1588,7 +1588,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1596,7 +1596,7 @@
         <v>56</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1604,7 +1604,7 @@
         <v>49</v>
       </c>
       <c r="B8">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1612,7 +1612,7 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1628,7 +1628,7 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>21</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5D7DA84F-0C32-43B2-81BB-4D31F778757A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,19 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>ideal</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1209,16 +1221,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,16 +1554,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>91</v>
       </c>
@@ -1559,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>84</v>
       </c>
@@ -1567,7 +1587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>77</v>
       </c>
@@ -1575,7 +1595,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70</v>
       </c>
@@ -1583,7 +1603,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>63</v>
       </c>
@@ -1591,7 +1611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>56</v>
       </c>
@@ -1599,7 +1619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>49</v>
       </c>
@@ -1607,7 +1627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>42</v>
       </c>
@@ -1615,7 +1635,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>35</v>
       </c>
@@ -1623,7 +1643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
@@ -1631,7 +1651,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>21</v>
       </c>
@@ -1639,7 +1659,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1647,7 +1667,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -1655,7 +1675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5D7DA84F-0C32-43B2-81BB-4D31F778757A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08F4075-A5EE-4B03-A513-B7B6C8551EC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,18 +26,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ideal</t>
   </si>
   <si>
     <t>actual</t>
   </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Critical Tasks</t>
+  </si>
+  <si>
+    <t>Extra Tasks</t>
+  </si>
+  <si>
+    <t>Ideal without extra</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -67,14 +86,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00CC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,67 +223,14 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1">
-                          <a:lumMod val="95000"/>
-                          <a:alpha val="54000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Arkusz1!$B$2:$B$15</c:f>
+              <c:f>Arkusz1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -299,6 +271,9 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -306,50 +281,53 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$A$2:$A$15</c:f>
+              <c:f>Arkusz1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -359,6 +337,339 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-48A9-4CDB-88DB-02E9965AC6A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Actual Tasks Remaining</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7404-4EC6-B5F2-9DED1E3DCB02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Critical Tasks</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7404-4EC6-B5F2-9DED1E3DCB02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Extra Tasks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00CC00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7404-4EC6-B5F2-9DED1E3DCB02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Ideal Tasks Remaining Without Extra Features</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7404-4EC6-B5F2-9DED1E3DCB02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,8 +937,8 @@
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1221,16 +1532,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1555,136 +1866,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>91</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>140</v>
+      </c>
+      <c r="D2">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>91</v>
+      </c>
+      <c r="F2">
+        <v>53</v>
+      </c>
+      <c r="G2">
+        <v>140</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>84</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43174</v>
       </c>
       <c r="B3">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>135</v>
+      </c>
+      <c r="E3">
+        <v>91</v>
+      </c>
+      <c r="F3">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>133</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>77</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43181</v>
       </c>
       <c r="B4">
         <v>14</v>
       </c>
+      <c r="C4">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>135</v>
+      </c>
+      <c r="E4">
+        <v>91</v>
+      </c>
+      <c r="F4">
+        <v>53</v>
+      </c>
+      <c r="G4">
+        <v>126</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>70</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43188</v>
       </c>
       <c r="B5">
         <v>21</v>
       </c>
+      <c r="C5">
+        <v>107</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+      <c r="E5">
+        <v>91</v>
+      </c>
+      <c r="F5">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>119</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>63</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43195</v>
       </c>
       <c r="B6">
         <v>28</v>
       </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>135</v>
+      </c>
+      <c r="E6">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>112</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>56</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43202</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <v>105</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>49</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43209</v>
       </c>
       <c r="B8">
         <v>42</v>
       </c>
+      <c r="C8">
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>53</v>
+      </c>
+      <c r="G8">
+        <v>98</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>42</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43216</v>
       </c>
       <c r="B9">
         <v>49</v>
       </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="E9">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>91</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>35</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43223</v>
       </c>
       <c r="B10">
         <v>56</v>
       </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>91</v>
+      </c>
+      <c r="F10">
+        <v>53</v>
+      </c>
+      <c r="G10">
+        <v>84</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>28</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43230</v>
       </c>
       <c r="B11">
         <v>63</v>
       </c>
+      <c r="C11">
+        <v>41</v>
+      </c>
+      <c r="E11">
+        <v>91</v>
+      </c>
+      <c r="F11">
+        <v>53</v>
+      </c>
+      <c r="G11">
+        <v>77</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>21</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43237</v>
       </c>
       <c r="B12">
         <v>70</v>
       </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43244</v>
       </c>
       <c r="B13">
         <v>77</v>
       </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>91</v>
+      </c>
+      <c r="F13">
+        <v>53</v>
+      </c>
+      <c r="G13">
+        <v>63</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>7</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43251</v>
       </c>
       <c r="B14">
         <v>84</v>
       </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>91</v>
+      </c>
+      <c r="F14">
+        <v>53</v>
+      </c>
+      <c r="G14">
+        <v>56</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B15">
+        <v>88</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <v>91</v>
+      </c>
+      <c r="F15">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43258</v>
+      </c>
+      <c r="B16">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>91</v>
+      </c>
+      <c r="F16">
+        <v>53</v>
+      </c>
+      <c r="G16">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08F4075-A5EE-4B03-A513-B7B6C8551EC8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D99F4202-D017-43F0-94CE-13ED7FB142AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ideal</t>
   </si>
@@ -47,6 +46,12 @@
   </si>
   <si>
     <t>Ideal without extra</t>
+  </si>
+  <si>
+    <t>noooo, almost</t>
+  </si>
+  <si>
+    <t>18 for the reports+ sth</t>
   </si>
 </sst>
 </file>
@@ -271,9 +276,6 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
@@ -325,9 +327,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -476,9 +475,6 @@
                 <c:pt idx="13">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>91</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -570,9 +566,6 @@
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
@@ -658,9 +651,6 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
@@ -1866,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,10 +2167,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>43255</v>
+        <v>43258</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2196,24 +2186,131 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43174</v>
+      </c>
+      <c r="C19">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43181</v>
+      </c>
+      <c r="C20">
+        <f>C19-10</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43188</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C28" si="0">C20-10</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43195</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43202</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43209</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43216</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43223</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43230</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43237</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43244</v>
+      </c>
+      <c r="C29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>43258</v>
       </c>
-      <c r="B16">
-        <v>91</v>
-      </c>
-      <c r="C16">
+      <c r="C31">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>91</v>
-      </c>
-      <c r="F16">
-        <v>53</v>
-      </c>
-      <c r="G16">
-        <v>53</v>
-      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D99F4202-D017-43F0-94CE-13ED7FB142AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{43B10F52-E3F5-46B1-9E11-3AC64CE79DFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,10 @@
     <t>Ideal without extra</t>
   </si>
   <si>
-    <t>noooo, almost</t>
+    <t>18 for the reports+ sth</t>
   </si>
   <si>
-    <t>18 for the reports+ sth</t>
+    <t>ideal alternative</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,10 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -660,6 +663,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-7404-4EC6-B5F2-9DED1E3DCB02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Ideal Alternative Tasks Remaining </c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$18:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D10E-44BD-A883-538B747C4EF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1858,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2188,9 +2276,14 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>7</v>
+      <c r="C18">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2198,7 +2291,8 @@
         <v>43174</v>
       </c>
       <c r="C19">
-        <v>140</v>
+        <f>C18-9</f>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,8 +2300,8 @@
         <v>43181</v>
       </c>
       <c r="C20">
-        <f>C19-10</f>
-        <v>130</v>
+        <f t="shared" ref="C20:C28" si="0">C19-9</f>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,8 +2309,8 @@
         <v>43188</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C28" si="0">C20-10</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2225,7 +2319,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2234,7 +2328,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,7 +2337,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,7 +2346,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2261,7 +2355,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2270,7 +2364,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2287,7 +2381,7 @@
         <v>43244</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,7 +2392,7 @@
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{43B10F52-E3F5-46B1-9E11-3AC64CE79DFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C71AC24F-8A38-48D1-B772-A6E30FEC7FB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -288,43 +288,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>118</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -373,22 +373,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>135</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,43 +615,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>133</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>53</c:v>
@@ -700,43 +700,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -1946,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <v>91</v>
@@ -1995,7 +1995,7 @@
         <v>53</v>
       </c>
       <c r="G2">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2006,10 +2006,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E3">
         <v>91</v>
@@ -2018,7 +2018,7 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2029,10 +2029,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D4">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E4">
         <v>91</v>
@@ -2041,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="G4">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2052,10 +2052,10 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E5">
         <v>91</v>
@@ -2064,7 +2064,7 @@
         <v>53</v>
       </c>
       <c r="G5">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2075,10 +2075,10 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D6">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>91</v>
@@ -2087,7 +2087,7 @@
         <v>53</v>
       </c>
       <c r="G6">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2098,10 +2098,10 @@
         <v>35</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E7">
         <v>91</v>
@@ -2110,7 +2110,7 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2121,7 +2121,10 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
       </c>
       <c r="E8">
         <v>91</v>
@@ -2130,7 +2133,7 @@
         <v>53</v>
       </c>
       <c r="G8">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2141,7 +2144,7 @@
         <v>49</v>
       </c>
       <c r="C9">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>91</v>
@@ -2150,7 +2153,7 @@
         <v>53</v>
       </c>
       <c r="G9">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2161,7 +2164,7 @@
         <v>56</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E10">
         <v>91</v>
@@ -2170,7 +2173,7 @@
         <v>53</v>
       </c>
       <c r="G10">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2181,7 +2184,7 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E11">
         <v>91</v>
@@ -2190,7 +2193,7 @@
         <v>53</v>
       </c>
       <c r="G11">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2201,7 +2204,7 @@
         <v>70</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>91</v>
@@ -2210,7 +2213,7 @@
         <v>53</v>
       </c>
       <c r="G12">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2221,7 +2224,7 @@
         <v>77</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>91</v>
@@ -2230,7 +2233,7 @@
         <v>53</v>
       </c>
       <c r="G13">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2241,7 +2244,7 @@
         <v>84</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>91</v>
@@ -2250,7 +2253,7 @@
         <v>53</v>
       </c>
       <c r="G14">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2283,7 +2286,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2292,7 +2295,7 @@
       </c>
       <c r="C19">
         <f>C18-9</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2301,7 +2304,7 @@
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C28" si="0">C19-9</f>
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2313,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,7 +2322,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2328,7 +2331,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,7 +2340,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2346,7 +2349,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,7 +2358,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2364,7 +2367,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,7 +2376,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2381,7 +2384,7 @@
         <v>43244</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2389,7 +2392,7 @@
         <v>43251</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C71AC24F-8A38-48D1-B772-A6E30FEC7FB8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B22ED347-E9A2-4A92-9F78-0BE2C18CAC9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,7 +908,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Sum of Task Estimates (days)</a:t>
+                  <a:t>Sum of Task Estimates</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1947,7 +1947,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BurndownChart.xlsx
+++ b/BurndownChart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dani\Desktop\SEP2_eNTe\SEP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B22ED347-E9A2-4A92-9F78-0BE2C18CAC9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{32BC5C57-D698-46C0-8E1B-308D491D44CB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,10 +368,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Arkusz1!$D$2:$D$7</c:f>
+              <c:f>Arkusz1!$D$2:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>145</c:v>
                 </c:pt>
@@ -389,6 +389,18 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,46 +446,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1989,7 +2001,7 @@
         <v>145</v>
       </c>
       <c r="E2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F2">
         <v>53</v>
@@ -2012,7 +2024,7 @@
         <v>140</v>
       </c>
       <c r="E3">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <v>53</v>
@@ -2035,7 +2047,7 @@
         <v>140</v>
       </c>
       <c r="E4">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>53</v>
@@ -2058,7 +2070,7 @@
         <v>140</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>53</v>
@@ -2081,7 +2093,7 @@
         <v>140</v>
       </c>
       <c r="E6">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F6">
         <v>53</v>
@@ -2104,7 +2116,7 @@
         <v>140</v>
       </c>
       <c r="E7">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>53</v>
@@ -2127,7 +2139,7 @@
         <v>130</v>
       </c>
       <c r="E8">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F8">
         <v>53</v>
@@ -2146,8 +2158,11 @@
       <c r="C9">
         <v>68</v>
       </c>
+      <c r="D9">
+        <v>130</v>
+      </c>
       <c r="E9">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <v>53</v>
@@ -2166,8 +2181,11 @@
       <c r="C10">
         <v>57</v>
       </c>
+      <c r="D10">
+        <v>130</v>
+      </c>
       <c r="E10">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F10">
         <v>53</v>
@@ -2186,8 +2204,11 @@
       <c r="C11">
         <v>46</v>
       </c>
+      <c r="D11">
+        <v>126</v>
+      </c>
       <c r="E11">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>53</v>
@@ -2207,7 +2228,7 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F12">
         <v>53</v>
@@ -2227,7 +2248,7 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F13">
         <v>53</v>
@@ -2247,7 +2268,7 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>53</v>
@@ -2267,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>53</v>
